--- a/sampleRemoveSpreadsheet.xlsx
+++ b/sampleRemoveSpreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericx\Documents\dev\david-steven-eric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C689BA-A996-40B7-9E66-9570617E38AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D300AF-B1CC-452D-8D1C-F8F7788B48AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8EB5CB0C-D054-4729-BF9E-7709239FF7BD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>3HGGK5H88KM742051</t>
   </si>
@@ -64,6 +64,108 @@
   </si>
   <si>
     <t>1LN6L9NP1J5616818</t>
+  </si>
+  <si>
+    <t>1C4RJFLG1HC603078</t>
+  </si>
+  <si>
+    <t>3FA6P0LU1KR101755</t>
+  </si>
+  <si>
+    <t>JTMRWRFV7LJ048851</t>
+  </si>
+  <si>
+    <t>1G1RE6E42EU111830</t>
+  </si>
+  <si>
+    <t>SADCJ2BN5HA086947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KNMAT2MV3JP608780 </t>
+  </si>
+  <si>
+    <t>5NPD84LF6KH490922</t>
+  </si>
+  <si>
+    <t>5npe34af3jh646547</t>
+  </si>
+  <si>
+    <t>55SWF4KB5GU142000</t>
+  </si>
+  <si>
+    <t>5N1DR2MM3HC676500</t>
+  </si>
+  <si>
+    <t>km8k1caa8ku280255</t>
+  </si>
+  <si>
+    <t>ja4ap3au5ku004554</t>
+  </si>
+  <si>
+    <t>4T1G11AK8LU931436</t>
+  </si>
+  <si>
+    <t>5LMCJ4D97KUL29342</t>
+  </si>
+  <si>
+    <t>5LMCJ3D93KUL07493</t>
+  </si>
+  <si>
+    <t>WA1BNAFY7J2228980</t>
+  </si>
+  <si>
+    <t>1GYS4KKJ5KR322303</t>
+  </si>
+  <si>
+    <t>2C4RC1BG1KR630004</t>
+  </si>
+  <si>
+    <t>2C3CDZKG4KH500584</t>
+  </si>
+  <si>
+    <t>1C4PJMDX9KD438148</t>
+  </si>
+  <si>
+    <t>5YJ3E1EA5JF098290</t>
+  </si>
+  <si>
+    <t>4S4BRBKC3D3315246</t>
+  </si>
+  <si>
+    <t>JTDKN3DU1D5672005</t>
+  </si>
+  <si>
+    <t>5NPE34AF8KH807332</t>
+  </si>
+  <si>
+    <t>JTNK4RBE9K3018486</t>
+  </si>
+  <si>
+    <t>2T1BURHE2KC206124</t>
+  </si>
+  <si>
+    <t>5YFEPMAE4MP176418</t>
+  </si>
+  <si>
+    <t>JM3KE4DY8G0918453</t>
+  </si>
+  <si>
+    <t>5TFUY5F14MX046497</t>
+  </si>
+  <si>
+    <t>KM8J3CAL7KU070141</t>
+  </si>
+  <si>
+    <t>5NPD84LF8LH623701</t>
+  </si>
+  <si>
+    <t>KM8J3CA43KU038019</t>
+  </si>
+  <si>
+    <t>5XXGT4L38LG413032</t>
+  </si>
+  <si>
+    <t>5J8YD4H5XKL032231</t>
   </si>
 </sst>
 </file>
@@ -415,13 +517,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE5B57A-7800-460C-A171-20D9DEDBB894}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A10"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -473,6 +578,176 @@
         <v>9</v>
       </c>
     </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
